--- a/data/trans_dic/P1423_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1423_2016_2023-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02695770600124191</v>
+        <v>0.02697771616959486</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0879951937534825</v>
+        <v>0.08740744535742201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08934482845194788</v>
+        <v>0.08933687905157754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1273726810984158</v>
+        <v>0.1292879895549529</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06315831927366755</v>
+        <v>0.06326557109520903</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1162019223038875</v>
+        <v>0.1174694054243806</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04927068974260203</v>
+        <v>0.04968679590376923</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1440006927522879</v>
+        <v>0.1467174986248155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1257077526444584</v>
+        <v>0.1268682378524275</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.176706703528943</v>
+        <v>0.1772015874797601</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0860104588628917</v>
+        <v>0.08534420101115545</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.155051228339438</v>
+        <v>0.1551900491308728</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.03401904774065995</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.06941943015681355</v>
+        <v>0.06941943015681357</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005997580073717665</v>
+        <v>0.005834640448313983</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02997330319928295</v>
+        <v>0.02913592153068388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04094391540646664</v>
+        <v>0.04154485008596982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07886144710175431</v>
+        <v>0.08049277150164576</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02677926250350971</v>
+        <v>0.02590482373917198</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06020919408227355</v>
+        <v>0.05983464106794741</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02022523740145642</v>
+        <v>0.01984708724656012</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05720763834651128</v>
+        <v>0.05503407139828907</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06898620432766008</v>
+        <v>0.07027081429194677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1080330246101839</v>
+        <v>0.108680434721708</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04337504320863386</v>
+        <v>0.04235143813642257</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08013289524395376</v>
+        <v>0.08022789807616112</v>
       </c>
     </row>
     <row r="10">
@@ -776,13 +776,13 @@
         <v>0.01541047575364938</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03131929581256233</v>
+        <v>0.03131929581256232</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04945944575349363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06122483300658157</v>
+        <v>0.06122483300658156</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03187238839452353</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008008250081159766</v>
+        <v>0.007986709224713376</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02293752084245769</v>
+        <v>0.0218755593259172</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03495776721963785</v>
+        <v>0.03414082784414397</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05048364086482889</v>
+        <v>0.04967021758150359</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02318343044472726</v>
+        <v>0.02364487898394037</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03856827087620174</v>
+        <v>0.038876286458327</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02667010802126658</v>
+        <v>0.02560383037765543</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04369097349311769</v>
+        <v>0.04230383956664466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06912799473499652</v>
+        <v>0.06723814694334362</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07562892389926328</v>
+        <v>0.07376789218691066</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04293710501274497</v>
+        <v>0.0435686232620702</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05471438412755927</v>
+        <v>0.05474171007027764</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.01912106761726229</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04006373286679139</v>
+        <v>0.04006373286679138</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0019721251038341</v>
+        <v>0.002284042967229052</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02434544292607742</v>
+        <v>0.02436985277523483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01619842183353173</v>
+        <v>0.01684203109722272</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03528408520340727</v>
+        <v>0.03643673167516673</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01183393955727218</v>
+        <v>0.01163123654098057</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03233835043398752</v>
+        <v>0.03257168785703896</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02087934411005557</v>
+        <v>0.0214763339402728</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05135559359206548</v>
+        <v>0.04937151780467649</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05006360303294809</v>
+        <v>0.05139972493368641</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05879201779502649</v>
+        <v>0.05902541621016823</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0300039301295819</v>
+        <v>0.03045366442549295</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05029827895133247</v>
+        <v>0.04984135680156552</v>
       </c>
     </row>
     <row r="16">
@@ -940,19 +940,19 @@
         <v>0.02071834988561165</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04659741675614049</v>
+        <v>0.04659741675614048</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.06848714800404102</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08250980088143552</v>
+        <v>0.08250980088143553</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04515536887061736</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.06509169286162036</v>
+        <v>0.06509169286162035</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01622610669587008</v>
+        <v>0.01641765168690005</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0394190115273752</v>
+        <v>0.0401379252398679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.060904178596836</v>
+        <v>0.06000202507206382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07540953104592248</v>
+        <v>0.0748377896243876</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03987747273299315</v>
+        <v>0.04006400302035722</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06003508296631119</v>
+        <v>0.05995564320448326</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02574860120181051</v>
+        <v>0.02624032652681426</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05371517536421506</v>
+        <v>0.05446257801565542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0777621495168722</v>
+        <v>0.0784333136190828</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09052838840539544</v>
+        <v>0.08956576098360318</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0508637401166195</v>
+        <v>0.05027764128154989</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07083971649813744</v>
+        <v>0.07081906389678468</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30408</v>
+        <v>30431</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43574</v>
+        <v>43283</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>112535</v>
+        <v>112525</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>79339</v>
+        <v>80532</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>150794</v>
+        <v>151050</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>129923</v>
+        <v>131340</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55577</v>
+        <v>56047</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71307</v>
+        <v>72652</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>158337</v>
+        <v>159798</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>110069</v>
+        <v>110377</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>205355</v>
+        <v>203764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>173359</v>
+        <v>173515</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5451</v>
+        <v>5303</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28778</v>
+        <v>27974</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41209</v>
+        <v>41814</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>87827</v>
+        <v>89643</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51290</v>
+        <v>49616</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>124863</v>
+        <v>124086</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18381</v>
+        <v>18038</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>54927</v>
+        <v>52840</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69433</v>
+        <v>70726</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>120314</v>
+        <v>121035</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>83076</v>
+        <v>81116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>166181</v>
+        <v>166378</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6597</v>
+        <v>6579</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23987</v>
+        <v>22876</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26955</v>
+        <v>26325</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52856</v>
+        <v>52004</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36973</v>
+        <v>37709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>80713</v>
+        <v>81358</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21970</v>
+        <v>21091</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45689</v>
+        <v>44239</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53302</v>
+        <v>51845</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79183</v>
+        <v>77234</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>68477</v>
+        <v>69484</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>114502</v>
+        <v>114560</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>999</v>
+        <v>1157</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23759</v>
+        <v>23783</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7932</v>
+        <v>8248</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32047</v>
+        <v>33094</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11791</v>
+        <v>11589</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>60931</v>
+        <v>61371</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10580</v>
+        <v>10882</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50119</v>
+        <v>48183</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24516</v>
+        <v>25170</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53398</v>
+        <v>53610</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29896</v>
+        <v>30344</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>94771</v>
+        <v>93910</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54638</v>
+        <v>55283</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>137060</v>
+        <v>139559</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>214796</v>
+        <v>211615</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>278398</v>
+        <v>276287</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>274918</v>
+        <v>276204</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>430380</v>
+        <v>429810</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>86703</v>
+        <v>88359</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>186767</v>
+        <v>189366</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>274251</v>
+        <v>276618</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>334214</v>
+        <v>330660</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>350658</v>
+        <v>346618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>507836</v>
+        <v>507688</v>
       </c>
     </row>
     <row r="24">
